--- a/Data/C04 Figures.xlsx
+++ b/Data/C04 Figures.xlsx
@@ -3181,10 +3181,10 @@
         <v>45292</v>
       </c>
       <c r="B254" t="n">
-        <v>18.6094603249848</v>
+        <v>18.562465775691</v>
       </c>
       <c r="C254" t="n">
-        <v>5.33816074536378</v>
+        <v>5.24353052308734</v>
       </c>
     </row>
     <row r="255">
@@ -3192,10 +3192,10 @@
         <v>45383</v>
       </c>
       <c r="B255" t="n">
-        <v>18.6930226586063</v>
+        <v>18.5972909953103</v>
       </c>
       <c r="C255" t="n">
-        <v>5.46825253327254</v>
+        <v>5.29500379889439</v>
       </c>
     </row>
     <row r="256">
@@ -3203,10 +3203,21 @@
         <v>45474</v>
       </c>
       <c r="B256" t="n">
-        <v>18.4423076923077</v>
+        <v>18.4005081043947</v>
       </c>
       <c r="C256" t="n">
-        <v>5.11239604989605</v>
+        <v>4.97579375109366</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B257" t="n">
+        <v>18.7213836895325</v>
+      </c>
+      <c r="C257" t="n">
+        <v>5.37004047756379</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C04 Figures.xlsx
+++ b/Data/C04 Figures.xlsx
@@ -3181,10 +3181,10 @@
         <v>45292</v>
       </c>
       <c r="B254" t="n">
-        <v>18.562465775691</v>
+        <v>18.5230546399493</v>
       </c>
       <c r="C254" t="n">
-        <v>5.24353052308734</v>
+        <v>5.286538901876</v>
       </c>
     </row>
     <row r="255">
@@ -3192,10 +3192,10 @@
         <v>45383</v>
       </c>
       <c r="B255" t="n">
-        <v>18.5972909953103</v>
+        <v>18.579678533882</v>
       </c>
       <c r="C255" t="n">
-        <v>5.29500379889439</v>
+        <v>5.37265011200385</v>
       </c>
     </row>
     <row r="256">
@@ -3203,10 +3203,10 @@
         <v>45474</v>
       </c>
       <c r="B256" t="n">
-        <v>18.4005081043947</v>
+        <v>18.3127973854011</v>
       </c>
       <c r="C256" t="n">
-        <v>4.97579375109366</v>
+        <v>5.01747937459664</v>
       </c>
     </row>
     <row r="257">
@@ -3214,10 +3214,21 @@
         <v>45566</v>
       </c>
       <c r="B257" t="n">
-        <v>18.7213836895325</v>
+        <v>18.6162588438133</v>
       </c>
       <c r="C257" t="n">
-        <v>5.37004047756379</v>
+        <v>5.35589494034411</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B258" t="n">
+        <v>18.4495051451297</v>
+      </c>
+      <c r="C258" t="n">
+        <v>5.11677667642011</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C04 Figures.xlsx
+++ b/Data/C04 Figures.xlsx
@@ -3225,10 +3225,21 @@
         <v>45658</v>
       </c>
       <c r="B258" t="n">
-        <v>18.4495051451297</v>
+        <v>18.368352226486</v>
       </c>
       <c r="C258" t="n">
-        <v>5.11677667642011</v>
+        <v>5.10656846762632</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B259" t="n">
+        <v>18.4213089147605</v>
+      </c>
+      <c r="C259" t="n">
+        <v>5.07300908740222</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C04 Figures.xlsx
+++ b/Data/C04 Figures.xlsx
@@ -3093,10 +3093,10 @@
         <v>44562</v>
       </c>
       <c r="B246" t="n">
-        <v>20.0666784860265</v>
+        <v>20.1861878293926</v>
       </c>
       <c r="C246" t="n">
-        <v>7.32612928938261</v>
+        <v>7.43887336923653</v>
       </c>
     </row>
     <row r="247">
@@ -3104,10 +3104,10 @@
         <v>44652</v>
       </c>
       <c r="B247" t="n">
-        <v>19.0472302109485</v>
+        <v>19.1879056710799</v>
       </c>
       <c r="C247" t="n">
-        <v>6.51252653810276</v>
+        <v>6.67567429554868</v>
       </c>
     </row>
     <row r="248">
@@ -3115,10 +3115,10 @@
         <v>44743</v>
       </c>
       <c r="B248" t="n">
-        <v>19.056771429606</v>
+        <v>19.2156336023307</v>
       </c>
       <c r="C248" t="n">
-        <v>6.16920287130119</v>
+        <v>6.38988739774131</v>
       </c>
     </row>
     <row r="249">
@@ -3126,10 +3126,10 @@
         <v>44835</v>
       </c>
       <c r="B249" t="n">
-        <v>19.0249994767065</v>
+        <v>19.1502752648906</v>
       </c>
       <c r="C249" t="n">
-        <v>5.84497952177948</v>
+        <v>6.0484964174067</v>
       </c>
     </row>
     <row r="250">
@@ -3137,10 +3137,10 @@
         <v>44927</v>
       </c>
       <c r="B250" t="n">
-        <v>18.9808597305157</v>
+        <v>19.0893646126188</v>
       </c>
       <c r="C250" t="n">
-        <v>5.754983462452</v>
+        <v>5.99719546714975</v>
       </c>
     </row>
     <row r="251">
@@ -3148,10 +3148,10 @@
         <v>45017</v>
       </c>
       <c r="B251" t="n">
-        <v>19.3923743811157</v>
+        <v>19.5677296266013</v>
       </c>
       <c r="C251" t="n">
-        <v>6.07198683386012</v>
+        <v>6.42055055873535</v>
       </c>
     </row>
     <row r="252">
@@ -3159,10 +3159,10 @@
         <v>45108</v>
       </c>
       <c r="B252" t="n">
-        <v>19.0750238549618</v>
+        <v>19.1622543420477</v>
       </c>
       <c r="C252" t="n">
-        <v>5.81329155100625</v>
+        <v>6.15826189993275</v>
       </c>
     </row>
     <row r="253">
@@ -3170,10 +3170,10 @@
         <v>45200</v>
       </c>
       <c r="B253" t="n">
-        <v>18.5730361526519</v>
+        <v>18.8116644868268</v>
       </c>
       <c r="C253" t="n">
-        <v>5.3640961703525</v>
+        <v>5.71299334905648</v>
       </c>
     </row>
     <row r="254">
@@ -3181,10 +3181,10 @@
         <v>45292</v>
       </c>
       <c r="B254" t="n">
-        <v>18.5230546399493</v>
+        <v>18.7480321495711</v>
       </c>
       <c r="C254" t="n">
-        <v>5.286538901876</v>
+        <v>5.65700185883646</v>
       </c>
     </row>
     <row r="255">
@@ -3192,10 +3192,10 @@
         <v>45383</v>
       </c>
       <c r="B255" t="n">
-        <v>18.579678533882</v>
+        <v>18.9413216580099</v>
       </c>
       <c r="C255" t="n">
-        <v>5.37265011200385</v>
+        <v>5.86770470340975</v>
       </c>
     </row>
     <row r="256">
@@ -3203,10 +3203,10 @@
         <v>45474</v>
       </c>
       <c r="B256" t="n">
-        <v>18.3127973854011</v>
+        <v>18.637621597598</v>
       </c>
       <c r="C256" t="n">
-        <v>5.01747937459664</v>
+        <v>5.58483703335705</v>
       </c>
     </row>
     <row r="257">
@@ -3214,10 +3214,10 @@
         <v>45566</v>
       </c>
       <c r="B257" t="n">
-        <v>18.6162588438133</v>
+        <v>18.9724942523236</v>
       </c>
       <c r="C257" t="n">
-        <v>5.35589494034411</v>
+        <v>5.94333659853393</v>
       </c>
     </row>
     <row r="258">
@@ -3225,10 +3225,10 @@
         <v>45658</v>
       </c>
       <c r="B258" t="n">
-        <v>18.368352226486</v>
+        <v>18.6418765694586</v>
       </c>
       <c r="C258" t="n">
-        <v>5.10656846762632</v>
+        <v>5.61316618936084</v>
       </c>
     </row>
     <row r="259">
@@ -3236,10 +3236,21 @@
         <v>45748</v>
       </c>
       <c r="B259" t="n">
-        <v>18.4213089147605</v>
+        <v>18.8125451871058</v>
       </c>
       <c r="C259" t="n">
-        <v>5.07300908740222</v>
+        <v>5.66241180723492</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B260" t="n">
+        <v>18.5731276970108</v>
+      </c>
+      <c r="C260" t="n">
+        <v>5.50829131157048</v>
       </c>
     </row>
   </sheetData>
